--- a/biology/Botanique/Jasonia_glutinosa/Jasonia_glutinosa.xlsx
+++ b/biology/Botanique/Jasonia_glutinosa/Jasonia_glutinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jasonia glutineux, Chiliadenus glutineux
 Le Jasonia glutineux (Chiliadenus glutinosus, anciennement Chiliadenus saxatilis ou Jasonia glutinosa) est une espèce de plantes à fleurs de la famille des Astéracées, présente dans l'Ouest méditerranéen.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace aromatique, à rhizome ligneux, d'environ trente centimètres de haut ; elle fleurit en été.
 Les feuilles sont sessiles, lancéolées, oblongues, entières.
@@ -547,7 +561,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiliadenus glutinosus se trouve en France, dans la péninsule Ibérique et au Maroc.
 </t>
@@ -578,15 +594,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chiliadenus camphoratus Cass.[2],[1]
-Chiliadenus saxatilis (Lam.) Brullo[2],[1]
-Erigeron glutinosus L.[2],[1] (basionyme)
-Inula saxatilis Lam.[2] [1]
-Jasonia glutinosa var. glutinosa[2]
-Jasonia glutinosa (L.) DC.[2],[1], Prodr., vol. 5, p. 476, 1836[1]
-Jasonia saxatilis (Lam.) Guss.[2],[1][3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chiliadenus camphoratus Cass.,
+Chiliadenus saxatilis (Lam.) Brullo,
+Erigeron glutinosus L., (basionyme)
+Inula saxatilis Lam. 
+Jasonia glutinosa var. glutinosa
+Jasonia glutinosa (L.) DC. Prodr., vol. 5, p. 476, 1836
+Jasonia saxatilis (Lam.) Guss.,</t>
         </is>
       </c>
     </row>
@@ -614,7 +632,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles et les fleurs infusées ont des vertus digestives et sont indiquées en cas de problèmes intestinaux.
 </t>
